--- a/DataTest/Tiếp nhận/TC_07.xlsx
+++ b/DataTest/Tiếp nhận/TC_07.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Check" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Check" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -33,7 +33,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -487,26 +486,26 @@
   </sheetPr>
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="10" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="10.21875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="10.6640625" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="35.77734375" bestFit="1" customWidth="1" min="15" max="16"/>
-    <col width="52.77734375" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="13.21875" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="12.5546875" bestFit="1" customWidth="1" min="45" max="45"/>
-    <col width="10.77734375" bestFit="1" customWidth="1" min="46" max="46"/>
-    <col width="32.109375" bestFit="1" customWidth="1" min="47" max="47"/>
-    <col width="18.5546875" bestFit="1" customWidth="1" min="49" max="49"/>
-    <col width="61.21875" bestFit="1" customWidth="1" min="53" max="53"/>
-    <col width="14.33203125" bestFit="1" customWidth="1" min="54" max="54"/>
-    <col width="231.33203125" bestFit="1" customWidth="1" min="58" max="58"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="35.7109375" bestFit="1" customWidth="1" min="15" max="16"/>
+    <col width="52.7109375" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="45" max="45"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="46" max="46"/>
+    <col width="32.140625" bestFit="1" customWidth="1" min="47" max="47"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" min="49" max="49"/>
+    <col width="61.28515625" bestFit="1" customWidth="1" min="53" max="53"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="54" max="54"/>
+    <col width="231.28515625" bestFit="1" customWidth="1" min="58" max="58"/>
     <col width="22" bestFit="1" customWidth="1" min="59" max="59"/>
   </cols>
   <sheetData>
@@ -814,7 +813,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1919</v>
+        <v>3011</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -830,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>46200602613</v>
+        <v>46200608011</v>
       </c>
       <c r="F2" t="n">
         <v>356572156</v>
@@ -901,7 +900,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>DN4127460129110</t>
+          <t>DN4127460130011</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1041,7 +1040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1919</v>
+        <v>3011</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1050,7 +1049,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DN4127460129110</t>
+          <t>DN4127460130011</t>
         </is>
       </c>
       <c r="D2" t="n">
